--- a/contracts/clients.xlsx
+++ b/contracts/clients.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="201">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Parcelado (5x)</t>
   </si>
   <si>
-    <t xml:space="preserve">joao@email.com</t>
+    <t xml:space="preserve">yancarlostrab@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Maria Joaquina</t>
@@ -110,6 +110,519 @@
   </si>
   <si>
     <t xml:space="preserve">mnariajoaq@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuri Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.123.123-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.323.345/0001-98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuri@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Oliveira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.258.369-99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.987.654/0001-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tech Solutions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belo Horizonte - MG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savassi, MG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento Web </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/02/2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/08/2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcelado (3x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedro.oliveira@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Souza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">369.258.147-77 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.654.987/0001-55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Energy Ltda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curitiba - PR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro Cívico, PR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultoria Energética </t>
+  </si>
+  <si>
+    <t xml:space="preserve">À vista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ana.souza@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Mendes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">258.147.369-88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.789.456/0001-66 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast Logistics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porto Alegre - RS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navegantes, RS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logística e Transporte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/07/2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/01/2024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcelado (6x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rafael.mendes@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camila Freitas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.357.852-00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.123.654/0001-77 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedCare Serviços </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recife - PE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boa Viagem, PE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestão Hospitalar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcelado (4x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">camila.freitas@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Lima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">753.951.456-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.321.987/0001-88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EduTech Academy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florianópolis - SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trindade, SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treinamentos Online </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eduardo.lima@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Neves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">852.963.741-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.654.321/0001-99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fashion Retail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Paulo - SP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jardins, SP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultoria de Moda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/09/2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/03/2024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcelado (5x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fernando.neves@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo Ribeiro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">951.753.852-33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.789.123/0001-00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safe Security </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasília - DF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asa Sul, DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança Cibernética </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/10/2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/04/2024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gustavo.ribeiro@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Andrade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">321.654.987-00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.654.321/0001-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Luís - MA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cohatrac IV, MA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mineração </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucas.andrade@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz Souza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">741.852.963-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.753.852/0001-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energia Solar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/06/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/12/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beatriz.souza@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renato Lima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">963.258.741-99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.852.963/0001-33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento de Software </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/04/2012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/10/2012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">renato.lima@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana Torres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">258.369.147-88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.741.852/0001-44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transporte Internacional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mariana.torres@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Almeida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.789.456-66 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.963.741/0001-55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultoria Médica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">roberto.almeida@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanessa Ribeiro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.258.369-77 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.369.258/0001-66 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educação Online </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanessa.ribeiro@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Neves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">369.147.258-55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.258.369/0001-77 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/06/2012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/12/2012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ricardo.neves@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernanda Lopes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">852.963.147-44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.147.852/0001-88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asa Sul, DF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança Digital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/08/2015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/02/2016 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fernanda.lopes@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Martins </t>
+  </si>
+  <si>
+    <t xml:space="preserve">741.369.258-33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.369.258/0001-99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contabilidade LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio de Janeiro - RJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copacabana, RJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditoria Financeira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/02/2014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/08/2014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">diego.martins@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priscila Nogueira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">963.741.258-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.741.963/0001-00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supermercados Mateus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varejo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/11/2013 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/05/2014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">priscila.nogueira@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Mendes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">258.963.147-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.852.963/0001-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/09/2012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/03/2013 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carlos.mendes@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanda Silva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.357.852-88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.159.357/0001-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eficiência Energética </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amanda.silva@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guilherme Rocha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">357.159.852-77 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.357.159/0001-33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TI e Suporte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">guilherme.rocha@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Fontes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">741.852.369-66 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.741.852/0001-44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armazém e Distribuição </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04/2015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/2015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">laura.fontes@email.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiago Castro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">369.258.147-55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.369.258/0001-55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultoria em Saúde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiago.castro@email.com </t>
   </si>
 </sst>
 </file>
@@ -121,7 +634,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -148,18 +661,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -170,7 +676,28 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -216,7 +743,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,39 +760,79 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -460,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -472,11 +1039,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="25.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="39.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,10 +1112,10 @@
       <c r="I2" s="5" t="n">
         <v>45300</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -556,370 +1123,934 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="7" t="n">
         <v>44197</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="8" t="n">
         <v>6500</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="12"/>
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>43831</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="12"/>
+      <c r="A5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="12"/>
+      <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>44839</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>45204</v>
+      </c>
+      <c r="J6" s="11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="12"/>
+      <c r="A7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="11" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="12"/>
+      <c r="A8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>45049</v>
+      </c>
+      <c r="I8" s="10" t="n">
+        <v>45055</v>
+      </c>
+      <c r="J8" s="11" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="12"/>
+      <c r="A9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>44901</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>44907</v>
+      </c>
+      <c r="J9" s="11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="12"/>
+      <c r="A10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="12"/>
+      <c r="A11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="12"/>
+      <c r="A12" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <v>42279</v>
+      </c>
+      <c r="I12" s="15" t="n">
+        <v>42285</v>
+      </c>
+      <c r="J12" s="16" t="n">
+        <v>25000</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="12"/>
+      <c r="A13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="16" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="12"/>
+      <c r="A14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="12"/>
+      <c r="A15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="15" t="n">
+        <v>40666</v>
+      </c>
+      <c r="I15" s="15" t="n">
+        <v>40672</v>
+      </c>
+      <c r="J15" s="16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="12"/>
+      <c r="A16" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="15" t="n">
+        <v>41493</v>
+      </c>
+      <c r="I16" s="15" t="n">
+        <v>41852</v>
+      </c>
+      <c r="J16" s="16" t="n">
+        <v>11000</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="12"/>
+      <c r="A17" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="15" t="n">
+        <v>40522</v>
+      </c>
+      <c r="I17" s="15" t="n">
+        <v>40881</v>
+      </c>
+      <c r="J17" s="16" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="12"/>
+      <c r="A18" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="16" t="n">
+        <v>17500</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="12"/>
+      <c r="A19" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" s="16" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="16" t="n">
+        <v>19500</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="12"/>
+      <c r="A21" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" s="18" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="12"/>
+      <c r="A22" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" s="16" t="n">
+        <v>18500</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="12"/>
+      <c r="A23" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="15" t="n">
+        <v>40456</v>
+      </c>
+      <c r="I23" s="15" t="n">
+        <v>40462</v>
+      </c>
+      <c r="J23" s="16" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="12"/>
+      <c r="A24" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="15" t="n">
+        <v>40544</v>
+      </c>
+      <c r="I24" s="15" t="n">
+        <v>40550</v>
+      </c>
+      <c r="J24" s="16" t="n">
+        <v>12500</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="12"/>
+      <c r="A25" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" s="16" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="12"/>
+      <c r="A26" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" s="15" t="n">
+        <v>41401</v>
+      </c>
+      <c r="I26" s="20" t="n">
+        <v>41760</v>
+      </c>
+      <c r="J26" s="16" t="n">
+        <v>13500</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="12"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" display="mnariajoaq@email.com"/>
+    <hyperlink ref="L2" r:id="rId1" display="yancarlostrab@gmail.com"/>
+    <hyperlink ref="L3" r:id="rId2" display="mnariajoaq@email.com"/>
+    <hyperlink ref="L4" r:id="rId3" display="yuri@email.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
